--- a/doc/Precios trabajos.xlsx
+++ b/doc/Precios trabajos.xlsx
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t xml:space="preserve">Tipo de precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillotine</t>
+    <t xml:space="preserve">nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guillotine</t>
   </si>
   <si>
     <t xml:space="preserve">Adast plate</t>
@@ -53,49 +53,49 @@
     <t xml:space="preserve">GTO46 printing arrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine washing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMYK Ink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantone Ink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folding arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folding per qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punching arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punching per qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perforating arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perforating per qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracing per qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lac arrangement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lac per qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compile</t>
+    <t xml:space="preserve">machine washing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmyk ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantone ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folding arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folding per qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punching arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punching per qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perforating arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perforating per qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tracing arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tracing per qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lac arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lac per qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compile</t>
   </si>
   <si>
     <t xml:space="preserve">Adast printing</t>
@@ -213,7 +213,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/Precios trabajos.xlsx
+++ b/doc/Precios trabajos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">machine washing</t>
   </si>
   <si>
-    <t xml:space="preserve">cmyk ink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantone ink</t>
+    <t xml:space="preserve">cmyk ink kilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantone ink kilo</t>
   </si>
   <si>
     <t xml:space="preserve">folding arrangement</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">punching per qty</t>
   </si>
   <si>
-    <t xml:space="preserve">break out</t>
+    <t xml:space="preserve">break out per qty</t>
   </si>
   <si>
     <t xml:space="preserve">perforating arrangement</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">lac per qty</t>
   </si>
   <si>
-    <t xml:space="preserve">compile</t>
+    <t xml:space="preserve">compile per qty</t>
   </si>
   <si>
     <t xml:space="preserve">Adast printing</t>
@@ -213,7 +213,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
